--- a/estatistica/atividades/11b Correlação 0.xlsx
+++ b/estatistica/atividades/11b Correlação 0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svra-arquivos\Temporarios\.EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\839462\Documents\GitHub\unaerp\estatistica\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56BF86E-705E-4118-B456-907115A3B2E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3082F8-AFDD-4A8F-8A2B-B878D097090F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,46 +638,19 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1583,8 +1556,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3798749963102372E-2"/>
+                  <c:y val="-0.24156933508311462"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4534,10 +4543,10 @@
     </row>
     <row r="2" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
@@ -4899,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,22 +4927,22 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
@@ -6077,11 +6086,11 @@
         <f>_xlfn.STDEV.S(C36:P36)</f>
         <v>0.18640172852096409</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="44">
         <f>E41-3*F41</f>
         <v>0.80150910015139365</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="44">
         <f>E41+3*F41</f>
         <v>1.9199194712771783</v>
       </c>
@@ -6110,11 +6119,11 @@
         <f>_xlfn.STDEV.S(C37:P37)</f>
         <v>6.936129331975445E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="44">
         <f>E42-3*F42</f>
         <v>0.46763040575502224</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="44">
         <f>E42+3*F42</f>
         <v>0.88379816567354896</v>
       </c>
@@ -6122,7 +6131,7 @@
         <f>MIN(C37:P37)</f>
         <v>0.59</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="41">
         <f>MAX(C37:P37)</f>
         <v>0.8</v>
       </c>
@@ -6132,7 +6141,7 @@
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:L6">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notBetween">
       <formula>$R$7</formula>
       <formula>$S$7</formula>
     </cfRule>
@@ -6144,13 +6153,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:P36">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>$G$41</formula>
       <formula>$H$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:P37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>$G$42</formula>
       <formula>$H$42</formula>
     </cfRule>
